--- a/aeri2013_data_reconciled.xlsx
+++ b/aeri2013_data_reconciled.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Old spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA28F4-2A8D-4036-AC6B-6B1338299494}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18021D4-6176-B548-8DC1-CE5C0E5DAA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8976" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="26060" windowHeight="20880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$85</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="336">
   <si>
     <t>ID Number</t>
   </si>
@@ -246,9 +254,6 @@
   </si>
   <si>
     <t>Monash University</t>
-  </si>
-  <si>
-    <t>Ciaran B. Trace</t>
   </si>
   <si>
     <t>Christine D’Arpa</t>
@@ -478,9 +483,6 @@
     <t>This presentation features the results of a pilot study conducted with two qualitative record archives departments at UCLA. The pilot study attempts to determine the potential value and potential concerns involved in transforming ethnographic records created in a specific situated research environment into archival records available for general research. At each site employees were observed and interviewed about their work processes. These processes were compared to the data life cycle and the records creation continuum in an attempt to elucidate the spaces where records are imbued with new meaning.</t>
   </si>
   <si>
-    <t>‘Collaborative innovation’ has become hot topics both in recent Chinese literature and current practice. More and more research has been done in multidisciplinary fields to suggest positive social changes to improve the efficiency, effectiveness and economy of collaborative innovation and the performance. While this issue is gaining increasing attention in the “mainstream” literature, it is still underexplored in the field of records management. This paper aims to fill in this gap in literature and try to ask and answer the following two questions: (1) what does the current literature reveal about the interrelations between collaborative innovation and electronic records management? (2) How can the electronic records management competence building and assessment perspective help to define future topics for research in support of collaborative innovation community? Findings shown grand challenges to and demands from collaborative innovation communities are the commitment and trust, conformity and collective governance, connectivity and sustainable development of collaborative innovation. The author argues that electronic records management competence building and assessment can be used as a lens to promote multi-dimensional commitment based on trust of collective memory, to enhance multi-directional conformity based on collaborative governance of evidential information and to improve multi-layer connectivity based on  sustainable development of value added in knowledge asset.  By literature review, research synthesis and meta-analysis, the paper contributes to the literature in three ways. First, it provides insight into the ways as in which the collaborative innovation literature currently lacks attention towards aspects what are crucial for successfully performance. These elements are provided by incorporating the electronic records management competence building and assessment. Secondly, the paper proposes a set of assumptions and hypothesis under which electronic records management competence building and assessment in support of collaborative innovation community should operate. Thirdly, a research agenda in support of collaborative innovation community that incorporates the electronic records management competence building and assessment is proposed.  This paper is limited to rationalize the significance of the research topic and the feasibility for its future study, in depth studies of assumptions and hypothesis, conceptual framework for competence building and a model for its assessment will be done in the future. This paper consists of five parts: (1) introduction, (2) collaborative innovation as an emerging research topic in Chinese and English literature, (3) collaborative innovation community as emerging concept and the missing links to electronic records management in current literature, (4) linking electronic records management competence building and assessment to collaborative innovation community as a future research agenda, (5) conclusion.</t>
-  </si>
-  <si>
     <t>In an update to research presented at AERI conferences in 2009 and 2011, I will present initial findings from a nationwide survey of law enforcement agencies regarding their evidence management practices. Particular attention will be given to the creation, collection, and retention of audiovisual materials, and to situating evidence management and processing functions within the larger context of law enforcement and criminal justice systems. The paper will include a brief discussion of research methodology as well as possible implications of this research for archival education and professional practice.</t>
   </si>
   <si>
@@ -551,9 +553,6 @@
   </si>
   <si>
     <t>University of Illinois</t>
-  </si>
-  <si>
-    <t>The University of Texas</t>
   </si>
   <si>
     <t>University of California Los Angeles; University of Maryland</t>
@@ -599,9 +598,6 @@
     <t>Complicated Collaboration: An Examination of the Relationship Between Records Managers and IT Professionals</t>
   </si>
   <si>
-    <t>Museum Data Reuse: Objects, Metadata, and Interpretation</t>
-  </si>
-  <si>
     <t>What’s in a Name: ‘Cultural Heritage’ and ‘Folklore'</t>
   </si>
   <si>
@@ -759,17 +755,6 @@
   </si>
   <si>
     <t>Poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This  paper, presented in partnership with doctoral student Patti Condon who is an RA on this project, reports on the  research data gathered for a book currently in preparation and  provisionally titled "Archives in Libraries; How Librarians and Archivists Bridge the Gaps and Find Common Ground in a time of Convergence." This book is being published by SAA with a manuscript deadline of August 2013. It explores the ways in which librarians and other information professionals responsible for archival components in their workplace can best understand, manage, supervise and work with archives and archivists, how archivists and archives/special collections function within the context of a library, and how librarians and archivists can cooperate most effectively.   By explaining archives to librarians and assisting archivists to operate within a library context, this book addresses problems of alignment, cooperation and convergence between archives and libraries residing in the same institution. 
-Research data includes :
-- Interviews.  Over 25 hour-long interviews with archivists who work in public or academic libraries and their library directors. Coded in NVIVO. 
-- Organizational information
-- Statistics 
-- Scenarios
-- Secondary sources
-This presentation will discuss the relationships between the data and the  content of the book, how the data was collected and how it will be coded and used.  We will also discuss some of the  results as well as the research challenges.
-</t>
   </si>
   <si>
     <t>In a world where information is increasingly taking the form of big data in virtual repositories, where does the role of the records manager lie in ensuring the reliability of records as evidence?  This paper examines the growing tensions between records management and information systems professions, particularly in the implementation and use of technology to manage information assets.  The research questions include: what is the perceived competency of records managers in managing information assets via technology (e.g. enterprise content management)?  What does collaboration between records management and information technology departments look like?  Does such collaboration have an impact on the practical, moral and ethical responsibilities of records managers to manage information assets?  While there has been some research on the perceived competence of archives professionals in terms of digital archival content, there has been little focus on the role of records managers in managing digital records within organizations, nor has there been an examination of the relationship between records management and information technology professionals.  
@@ -777,14 +762,6 @@
 Although records management and IT professionals may be similar in terms handling things (e.g. records, information and technology) rather than people, however there may be quite significant differences in other dimensions.  Ann Pederson (2005, p. 65) summarised findings from research conducted in Australia and North America concerning the perceived characteristics of records and archives professionals.  Pederson noted that one of the characteristics that appear to be less prominent in the archivist’s profile is the ability to work productively within organizational culture (p. 65).  She suggests that this lack does not bode well, particularly in context to the need to work with information systems professionals.  IT professionals have unique cultural characteristics as an occupational group, as well, and this should be appreciated in order for other groups in the organization to collaborate successfully with them.  This paper attempts to open a discussion on this relationship, and the effect it may have on the professional responsibilities of records managers.</t>
   </si>
   <si>
-    <t xml:space="preserve">The data deluge and recent advances in data collection and analysis techniques have lead to an increasing interest in the use of datasets by researchers who did not create them (referred to as data reuse).  Recent studies explore the difficulties of making data accessible for reuse as well as the problems of understanding datasets created by others (Akmon et al. 2011, Zimmerman 2008).  One important data provider is largely overlooked from these discussions: the museum.  As collectors and curators of objects recording cultural and natural history, museums have long made data accessible to researchers.  Opportunities for including museum data in larger datasets are only beginning to emerge, as consortia develop tools for cross-collection access to museum data.  Little is known, however, about the needs of researchers for the successful reuse of museum data and how well these data represent the underlying collections.  This study examines the practices of botanists and archaeologists in their use of collections from two museums.  Based on 45 semi-structured interviews with botanists, archaeologists, and museum staff, this work uncovers the information needs of research users, how researchers perceive the relationship between museum objects and their descriptions in the research process, and the impact of museum practices for digital representation on reuse.
-My findings highlight the importance of contextual information concerning research design behind data (object) collection as a key component of successful reuse.  For example, the context in which an object was found is of paramount importance in both judging the quality of data and in making use of it for research, whether that is information about the stratigraphic layer in which an archaeological object was discovered or a description of the habitat of a botanical specimen.  Both groups of researchers have experienced changing standards and technologies for recording contextual information, making some older data less useful for analysis.  Archaeologists need to understand the provenience of an object, linking it to a particular location.  Objects lacking that level of detail can still be useful, but must be approached with different research questions.  Likewise, botanists studying the geographic range in which a particular species is found require a degree of certainty about location identification to judge whether a specimen may be included or removed from their dataset. The findings of this study have important implications for the representation of museum objects for research audiences.  They are also relevant to researchers studying data reuse, museum staff creating representation systems, and data curators working with data from multiple, heterogeneous sources.
-References:
-Akmon, D., A. Zimmerman, et al. (2011). "The Application of archival concepts to a data-intensive environment: Working with scientists to understand data management and preservation needs." Archival Science 11(3-4): 329-348.
-Zimmerman, A. S. (2008). "New Knowledge from Old Data: The Role of Standards in the Sharing and Reuse of Ecological Data." Science, Technology, &amp; Human Values 33: 631-652.
-</t>
-  </si>
-  <si>
     <t>[No abstract in program.]</t>
   </si>
   <si>
@@ -797,12 +774,6 @@
     <t>The U.S. National Environmental Policy Act (NEPA) of 1969 resulted from a growing awareness of environmental fragility in the wake of post WW-II economic development. NEPA spawned a variety of record keeping practices required to document the environmental effects of government projects. One of the most important types of documents to come out of NEPA is the Environmental Impact Assessment (EIA). An EIA is a technical report that describes and evaluates a government planning proposal, then compares it qualitatively to a set of alternatives – essentially quantifying and evaluating the environmental impact of human development. The EIA process also does more than document potential environmental harms; it produces a range of stakeholders who can have a say in determining how the process of a particular project might unfold. 
 This paper takes an archival continuum approach to evaluating EIA records. To begin, it describes the origins of EIAs as a result of the expansion of record keeping practices in light of two major historic acts: first NEPA, a law that came about due to the burgeoning environmental movement and policy theories of its chief author, Lynton Keith Caldwell; and two, the implementation of the Freedom of Information Act passed three years earlier in 1966. Suddenly government agencies were tasked with providing greater degrees of transparency to the public, and as a result created a variety of new government records and accounting procedures to satisfy these acts. Next, this paper explores the critical literature surrounding the EIA document both as a means of accountability and for fostering public participation. While the majority of government documents act as records of past or present proceedings, the EIA is a predictive document that sets out to assess future impact. As such, there are concerns surrounding the robustness of data to make accurate predictions; many scientists, environmentalists, and decision makers express distrust of the artificiality of data in EISs. Also, as a policy document the EIA has no regulatory function; it acts simply to inform, not to force particular outcomes. This limitation has consequences for the levels of effective participation that the process allows.
 Lastly, from the perspective of viewing archival records as living documents, this study looks at attempts to make EIAs more participatory and effective as a tool to monitor environmentally detrimental decisions. This section examines past efforts when EIAs have been successfully leveraged to affect policy choices. It also investigates attempts to use the Internet to make the process more participatory, through online access to data, interactive modeling, and real-time exchange of comments on websites during EIA draft review. The paper also looks at alternative approaches to environmental monitoring that have come about with the EPA’s release of open data sets on data.gov, though with a critical eye. Does more access to data create still greater accountability, or is it better to focus on more structural attempts to address environmental problems, such great public awareness of these issues and better enforcement at the policy level?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing from my dissertation work, this research presentation looks at how the concept of wicked problems can serve as a framework for examining institutional recordkeeping behavior. In particular, wicked problems are a useful lens for understanding how institutions attempting to address broad, complex societal problems document the environments and communities that they engage. This conceptual discussion is driven by a case study of reports produced by US advisors during the Vietnam War. 
- In their 1973 Policy Science article “Dilemmas in a General Theory of Planning,” Horst Rittel and Melvin Webber define wicked problems as societal problems that are complex, vitally important, ill defined, and “rely upon elusive political judgment for resolution.” Poverty, crime, and climate change are frequently considered types of wicked problems. Rittel and Webber point out that understanding and describing wicked problems is closely tied to conceptualizing solutions to the problems. For example, describing the problem of poor school performance and high dropout rates as being directly related to poverty means one has considered that ameliorating the negative consequences of poverty could be a solution for raising school performance and lowering the dropout rate. This shapes how organizations document complex environments as they are prompted to measure indicators that are closely linked with what they perceive as meaningful sources of problems and solutions. 
-Understanding counterinsurgencies as wicked problems helps to illustrate how civil and military leaders’ conceptualization of an insurgency—and thus their prescription for how to defeat the insurgency—shapes what they measure and how they measure it. This presentation looks at the recordkeeping behavior factors that shaped the creation of US advisor monthly province reports during the Vietnam War using the frame of wicked problems. It looks at the documentation and reporting rules for these reports and analyzes the debates and reasoning behind these rules. This is driven by an examination of how US military and civilian leaders’ understanding of the war influenced the recordkeeping rules and ultimately, the production of the monthly province reports.
-</t>
   </si>
   <si>
     <t>Due to the exploratory nature of much research done in archival science, qualitative methodologies are quite common. Many of us collect, and later analyze, qualitative data through interviews, focus groups, observations, content analyses, case studies, and many more techniques. Grounded theory is one method of collecting and analyzing data, and was covered in a workshop last year. But can we and should we go beyond grounded theory? What about discourse analysis, what about verbal data analysis? This workshop will build on last year’s grounded theory workshop by examining how discourse and verbal data analysis can be used as a complement to traditional content analysis and as a way to increase the validity of results, identify deeper meanings and shed a different perspective on a same dataset. Through a brief primer on discourse and verbal data analysis, participants will be introduced to these analytical techniques and work on different activities using a supplied dataset. Participants will also be encouraged to bring their own data that we can analyze as a group.
@@ -817,11 +788,6 @@
 The examination of archives and records production in Asian American women social organizations considers and repositions "the archive” as inter-generational projects of belonging. Personal record-making and keeping become a purposefully individual practice; and in turn, “the archive” is (re)made and (re)conceived as “a deliberate site for the production of anticipated memories by intentional communities.”2  The archive is configured as the collective experiences of women's everyday practices that  evidences of the sentimental belongings and  solidarities in their self-created communities.  
  1 From: Lisa Lowe. Immigrant Acts: On Asian American Cultural Politics (Durham, NC: Duke University Press, 1996).
  2  Arun Appadurai, “Archives as aspiration,” Information is Alive. Ed. Joke Brouwer and Arjen Mulder (Rotterdam: V2 Publishing/NAI Publishers, 2003), 34.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increasing numbers of family history researchers (FHRs) are moving from personal archiving of family history to working with other FHRs to build web-accessible archives pertaining to deceased individuals for public consumption.  Contributors to these archives are synthesizing personal and citizen archiving into new forms of online resources and new forms of collaborative work with primary materials. While FHR’s collaborative archiving results in rich information and primary materials worthy of long-term preservation, much of this activity is occurring outside of the walls of memory institutions on both commercial- and community-based websites. Understanding and engaging with these online communities is important for memory institutions if they hope to have a role in the long-term preservation of archives built by FHRs. Engagement with collaborative archiving communities also may lead to new ways for memory institutions to connect with archives users in a participatory manner that extends beyond interacting with users as information consumers to interacting with users as information consumers and information producers. 
-To develop an understanding of collaborative archiving communities, this preliminary study explores the relationship between personal and citizen archiving, how collaborative archiving works in the virtual world, and the roles memory institutions’ may play in collaborative archiving communities. To that end, the study examined collaborative archiving on Findagrave.com and Ancestry.com.  These popular websites have 1,000s of contributors and represent two different types of collaborative archiving: one mediated by a commercial entity and the other mediated by the community of users and contributors. Findagrave.com and Ancestry.com were chosen because of their prominence, the number of contributors involved, the historical value of the materials being archived, and the potential differences that may exist between collaborative archiving on a commercial website vs. a community-run website.  For this study, website contributors were interviewed, and content analysis was performed on message board posts of website contributors.  Important themes that were uncovered include copyright and use challenges, content accuracy issues, the need for mediation and consensus building in the content production process, and the ways memory institutions can support collaboration and information access in the community archiving process.  
-</t>
   </si>
   <si>
     <t>There is currently a limited body of research that addresses archivy outside the realm of cultural heritage that can be deemed tangible. Performative events such as theatrical performances, dances, rituals, festivals and oral traditions have enormous social and cultural value, yet conventional archives and other memory institutions do not have frameworks which support the preservation of such temporal artifacts. Discussions about archives in the performance studies literature tend to focus primarily on the embodied archive (alternately, “the repertoire,”) suggesting that modes of reception and transmission are best employed to ensure the cultural permanence of intangible and ephemeral artifacts. At the same time, because archivists and archives tend to privilege tangible – and often text-based – records, oral or other intangible modes of human communication are too frequently underrepresented in the archival corpus. Understandably, the temporal nature of performance raises questions about the ability of archives and archivists to reliably capture and adequately “preserve” performative events. 
@@ -837,14 +803,6 @@
 Krensky, Alexandra J. (2011). Beyond acquisitions: Building meaningful partnerships between academic archives and under-documented donor communities. Diss. University of North Carolina at Chapel Hill.
 McCarthy, John D. &amp; Mayer N. Zald. (1977), “Resource mobilization and social movements: A partial theory.” American Journal of Sociology 82(6): 1212-1241.
 Zald, Mayer N. and Ash, Roberta (1966). “Social movement organizations: Growth, decay and change.” Social Forces 44: 327-341.</t>
-  </si>
-  <si>
-    <t>In recent years, big data has become a prevalent issue for Information studies research and practice. In an era of big data, can we contemplate collections that rely more on the context of creation than volume and variety of source? This workshop considers what archives can learn from Big Data, but how they might also contribute to an alternate small data approach. Despite the outpouring of critique and theoretical assertions related to big data, little attention has been paid to the collections, researchers and collecting institutions that get left out the rhetoric of big data. Our investigation will develop criteria for studying small data and explore some of the issues inherent in developing small data research. The workshop will also provide a forum for participants and organizers to develop future directions towards a comprehensive small data research agenda. We thus hope to develop and discuss factors for consideration in context, preservation and access of both big and small data in archives.
-Recommended prerequisite readings for attendees:
-C. Lynch, “Big data: How do your data grow?,”Nature, vol. 455, pp. 28–29, Sep. 2008. 
-danah boyd and K. Crawford, “CRITICAL QUESTIONS FOR BIG DATA,” Information, Communication &amp; Society, vol. 15, no. 5, pp. 662–679, 2012.
-L. Manovich, “Trending: The Promises and the Challenges of Big Social Data,” in Debates in the Digital Humanities, M. K. Gold, Ed. Minneapolis, MN: U of Minnesota Press, 2012.
-J. Burrell, “The Ethnographer’s Complete Guide to Big Data: Conclusions (part 3 of 3),” Ethnography Matters. [Online]. Available: http://ethnographymatters.net/2012/06/28/the-ethnographers-complete-guide-to-big-data-part-iii-conclusions/. [Accessed: 10-Sep- 2012].</t>
   </si>
   <si>
     <t>Big Data, Small Data, and Archives: Future Directions for Archival Research (Big Data Part I)</t>
@@ -892,16 +850,6 @@
 Act Three – As sites of conversation. Lastly, I will present how satellite imagery can be read as sites of conversation around three contentious issues: surveillance, governance, and scientific practice. The use of remote sensing satellites to observe human behavior from space raises ethical questions about invasion of privacy and the objectification of “the pain of others.” The local-global tension in human rights practice is magnified by the extreme remoteness of the observing satellites and the “intimacy” present in the interpretation of violence at a granular level in high-resolution images. Satellite imagery also extends NGOs’ role in governance, reifying only those who are being observed as subjects of human rights. Furthermore, NGOs now work at the heart of a “humanitarian-industrial-complex” operating in global crisis management, where satellite imagery has become a critical source of information for a multitude of public and private stakeholders. Finally, the interpretation of satellite imagery to monitor human rights violations represents an attempt by some organizations to bring more objective methods of enumerating violence into human rights practice. This raises questions about what kinds of professional practices will be developed to deal with the ambiguity present in imagery, and how organizations and international courts will weigh satellite imagery against other types of evidence such as witness testimony.</t>
   </si>
   <si>
-    <t>Archivists and archival educators have become increasingly interested in expanded notions of how how archives are conceptualized.  This movement is best captured by the Pluralizing the Archival Curriculum Group, which asks “How do we move from an archival universe dominated by one cultural paradigm to an archival multiverse[?]” (p. 73). As an archives educator in New York City, I often find my students interested in pluralizing archives by applying contemporary social thought to their thinking about archives.  They use concepts that touch on issues of power, representation, and social justice, often leaving state or institutional power called into question.  Blouin and Rosenberg (2011) not that this tendency is not universal, finding that practicing archivists have grown away from historians and are more interested in “bureaucratic behavior and the imperatives of technology” (p. 93).  Despite their reservations, those pluralizing students most often employ concepts originating in the humanities and cultural spheres, which reflect both the educational background of the students that employ them as well as the educational background that attracts students to the field of archives.
-Despite this interest in incorporating multiple perspectives, rarely do concepts from the physical sciences get incorporated into discussion of archives.  This is not an occurrence that is unique to archival studies but spans the human sciences.  For example, in the 1990s Jonathan Boyarin asked, “Why is it that our physics are now those of Einsteinian relativity and quantum mechanics, whereas our politics and our rhetorics still assume a world as described by Newton and Descartes?” (p. 4)  Despite how rarely physics factors into foundations of archives conversations, many concepts from cosmology have extensive bearing on how archives and history are conceptualized.  For example, physicists contend that the notion of the past, present, and future is largely an illusion, albeit an illusion that is particularly useful for humans (or at least to those from Western civilizations).  Events that are thought of as occurring in the past are merely in a different point within spacetime, and those points are not theoretically inaccessible.  Most archivists will consent that interpretation of past events and its respective documentation will occur over time, yet often will not contend the immutability or “pastness” of years gone by.
-Like much of the human sciences, archivists most often employ a Cartesian conceptualization of time and space with a one-sided arrow pointing toward the future, which although useful is a particularly Western conception that physicists no longer believe is accurate. This paper will return to Boyarin’s question by discussing those ideas from physical cosmology that have bearing on how archives are conceptualized.  The goal is continue the pioneering work of pluralizing archives by giving some consideration to important concepts that may not necessarily be useful to humans in a everyday sense but may lead to a richer theoretical understanding of the place of archives within the human universe.
-References 
-Blouin Jr., F. X. &amp; Rosenberg, W. G. Processing the
-Past: Contesting Authority in History and the Archives. New York, NY: Oxford University Press, 2011.
-Boyarin, J. “Space, Time, and the Politics of Memory.” In J. Boyarin &amp; C. Tilly (Eds.), Remapping Memory: The Politics of TimeSpace (pp. 1-37). Minneapolis: University of Minnesota Press, 1994.
-Pluralizing the Archival Curriculum Group (PACG). “Educating for the Archival Multiverse.” American Archivist, 74 (Summer/Spring 2011), 69-101.</t>
-  </si>
-  <si>
     <t>University College London</t>
   </si>
   <si>
@@ -936,35 +884,6 @@
 In this presentation, I will introduce my dissertation study on replevin and the case studies that are serving as the lens for my examination. Replevin exists in all states as a tool for individuals seeking the recovery of personal property. There are, however, variances among states in both statute and relevant case law precedent that may have a bearing on the practice of recovering public records. This research presentation will begin to consider the consequences of these variances by focusing on replevin efforts in North Carolina, a state with a stringent statute in place and case law precedent that relates to replevin of public records. I will address how this legal framework may influence the replevin cases that the State Archives of North Carolina settles outside of court and what path this informal replevin process takes in the state. In doing so, I will begin to probe how these cases transform our understanding of replevin and the distinguishing line between private and public ownership.</t>
   </si>
   <si>
-    <t>The large-scale digitization of books is generating extraordinary collections of visual and textual surrogates, whose preservation is premised partly upon their long term cultural and research value. The challenges of long term preservation turn partially on understanding the archival nature of organically generated and quite fluid digital surrogates. Understanding the relationship between digital surrogacy and the traces of artifacts introduced by digitization processes is thus a substantial challenge for archival science. The emphasis of the research is on the visual representation of books as digitally bound bitmap sequences, derived from sometimes deeply flawed source volumes and produced through a complex set of manual scanning processes and automated post-scan image processing procedures. The transformation of published books to digital code and algorithm is “always subject to the functional constraints imposed by the material variables of computation.” (Eaves 2003, p. 164)  The relationship between source and digital surrogate conforms to the “law of contact” proposed by Taussig (1993, p. 52): “things which have once been on contact with each other continue to act on each other at a distance after the physical contact has been severed.”  Significantly, digital surrogates produced through high-volume digitization carry with them traces of the terms of their creation. Such traces may inevitably affect the trust that is essential the acceptance of digital surrogates as sources of scholarship. “If we cannot trust our means of reproduction of images of texts, can we trust the readings from them? How do scholars acknowledge the quality of digitized images of texts?” (Terras 2011, p. 1) The paper advances a theory of the archival nature of surrogacy founded on longstanding notions of archival quality and value, but informed by the findings of research into the quality of large-scale digitization of books and serials. The design of the research (Conway 2011) and summary findings (Conway 2013) are reported separately. The research has been supported by the US Institute of Museum and Library Services and The Andrew W. Mellon Foundation. 
-References
-Conway, P. (2011). “Archival Quality and Long-term Preservation: A Research Framework for Validating the Usefulness of Digital Surrogates.” Archival Science 11 (3).
-Conway, P. (2013). “Preserving Imperfection: Assessing the Incidence of Digital Imaging Error in HathiTrust.” Preservation, Digital Technology &amp; Culture 42 (1): forthcoming.
-Eaves, M. (2003). “Graphicality: multimedia Fables for ‘Textual’ Critics.” In Reimagining Textuality: Textual Studies in the Late Age of Print, ed. Elizabeth Bergmann-Loizeaux and Neil Fraistat. Madison: University of Wisconsin Press, pp. 99-122.
-Taussig, M. (1993). Mimesis and Alterity: A Particular History of the Senses. New York: Routledge.
-Terras, M. (2011). Artefacts and Errors: Acknowledging Issues of Representation in the Digital Imaging of Ancient Texts. In Fischer, F., Fritze, C. and Vogeler, G, (eds.) Kodikologie und Paläographie im digitalen Zeitalter 2 / Codicology and Palaeography in the Digital Age 2. (43-61). Books on Demand: Norderstedt, Germany. http:// discovery.ucl.ac.uk/171362/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro blog (Weibo in Chinese), similar to Twitter in America, has become an important tool to publish, spread and share information; to communicate with others; and even to seek social justice in China. According to the Statistical Report on Internet Development in China issued by CNNIC (China Internet Network Information Center), an agency responsible for administering internet services, including internet survey and statistics, the number of micro bloggers in China reached 274 million by the end of June, 2012. As of Jan 30, 2013, 36 archives in China have opened their own micro blogs on the biggest micro blog platform, Sina Weibo, but there are some problems and limitations existing in archives micro blogs. This paper will explore these problems and limitations, and the underlying reasons, from the perspective of archives culture.
-Chinese archives have a distinctive culture. This paper will address the distinctive archives culture has a great influence on the employment of micro blogs in Chinese archives, and  it underlies the current problems and limitations in Chinese archives micro blogs. This paper will also suggest that it is possible to promote archives culture through archival research and archival education. These activities may then promote the employment of archives micro blogs or other similar new technologies. A terminology of archives culture will be proposed and discussed. Characteristics of the distinctive archives culture in China will be analyzed using Hofstede’s cultural dimensions theory as a reference. The influence of Chinese archives culture on the employment of archives micro blogs will be evaluated by investigating the 36 governmental public archives micro blogs in China. This paper will also discuss the possibility to promote the archives culture and then promote the employment of micro blog or other new technologies in Chinese archives through archival research and archival education by comparing the differences on the employment of micro blog between the archives located in the southeast of China and the archives located in the west of China.
-</t>
-  </si>
-  <si>
-    <t>This paper presents a work-in-progress investigating the use of social media in scholarly communication and my efforts to preserve such informal scholarly communication. The digital humanities have emerged as a focal point for debates about the impact of information technology in the humanities[1]. While the digital humanities has its roots in the computational processing of text,[2] the landscape today is far richer and more complicated than early practitioners of humanities computing could have ever imagined (except perhaps Father Busa whose grand visions have yet to be fully realized[3]). Today, the digital humanities encompasses transformative methods of inquiry, radically new kinds of research objects, and potentially destabilizing shifts in scholarly publishing.
-Social media, especially blogs, have been eagerly adopted by the digital humanities community[4]. Blogs are pregnant with promise and peril as platforms for serious (and silly) scholarly communication; they are quick for publishing, support multimedia, and enable rapid interaction, yet, the low barrier of entry and lack of peer review puts blog's credibility and quality in doubt. Such a totalizing perspective ignores the diverse uses and meanings of blogs for scholars in a variety of disciplines[5]. The value of scholar's blogs and the vibrant communities of discourse around them should not be understated or ignored.
-The seriousness of blogs as a mode of scholarly communication is evident in the creation of initiatives such as Digital Humanities Now[6] and the Journal of Digital Humanities[7]. These projects treat blogs as legitimate forms of proto-scholarship and provide a kind of peer-review for the community by selecting high quality discourse within the Compendium of Digital Humanities, a curated selection of digital humanities blogs. As part of my dissertation research analyzing digital humanities blog, I have begun archiving and preserving this important scholarly record, both for my own analysis, but for the broader community as well. 
-This presentation will focus specifically on the sharing my experiences in web archiving and digital preservation of digital humanities blogs. I will discuss my experiences web archiving with the open source archive crawler Heretrix [8], the theoretical and practical challenges I faced (and still face) working with digitally native scholarly communication, and my efforts using the digital archive as data for quantitative and qualitative research.
-Notes
-1. Gold, Matthew K., ed. Debates in the Digital Humanities. Univ Of Minnesota Press, 2012.
-2. Hockey, S. “The History of Humanities Computing.” A Companion to Digital Humanities. 2004.
-3. Busa, R. “Foreword: Perspectives on the Digital Humanities.” In A Companion to Digital Humanities. 2004.
-4. Cohen, Dan. “Professors, Start Your Blogs.” 2006. http://www.dancohen.org/2006/08/21/professors-start -your-blogs/
-5. Hank, C. F. “Scholars and their Blogs: Characteristics, Preferences, and Perceptions Impacting Digital Preservation”. University of North Carolina, 2011. http://ils.unc.edu/~wildem/ ASIST2011/Hank-diss.pdf.
-6. http://digitalhumanitiesnow.org
-7. http://journalofdigitalhumanities.org/
-8. https://webarchive.jira.com/wiki/display/Heritrix/ Heritrix</t>
-  </si>
-  <si>
     <t>Jonathan Dorey; Rebecka Sheffield; Patricia Ayala</t>
   </si>
   <si>
@@ -975,9 +894,6 @@
   </si>
   <si>
     <t>Alex Poole</t>
-  </si>
-  <si>
-    <t>University North Carolina</t>
   </si>
   <si>
     <t>The Strange Career of Jim Crow Archives</t>
@@ -1113,18 +1029,7 @@
 The course was designed to bridge traditional archival education and the emerging challenges archivists and librarians are encountering with user expectations about new technology and new formats. Students were introduced to archival digital collection and content management concepts using the Omeka platform. It prepared students to develop critical thinking skills and innovative ways to implement and advocate for collaborations among the many stakeholders in the realm of digital humanities scholarship, research, and practice. Our particular focus is public history understood as a collaboration involving diverse and disparate publics working together to “make the past useful”.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Master of Archival Studies program at Clayton State University uses synchronous video conferences for live lectures. Over the past year, the program expanded the use of video conferencing to small group discussions in response to concerns that asynchronous, text-based discussion boards were not effectively engaging the students.  Students also  participate in online writers' groups, adapted from a model developed by Dr. Tara Gray at New Mexico State University with the assistance of Dr. Sipai Klein of Clayton State University.  In both discussion and writers groups, the real time interaction - expressing their own understanding and hearing other students' perspectives - are similar to traditional, face-to-face seminars.
-The effectiveness of online groups is influenced by technical and social components.  Choice of technology allows students to build personal relationships through a sense of immediacy and spontaneity similar to face-to-face seminars.  At the same time, the students need to be socialized in the use of the technology, making it as transparent as possible, so that they can concentrate on the ideas.
-The presentation will discuss the methods, technology, and socialization used in the program.  It will also offer preliminary observations that improved communications results in a greater understanding of the course content.
-</t>
-  </si>
-  <si>
     <t>Teaching About Evidence and Arrangement: Lessons from the APT Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The “Augmented Processing Table” project brings together researchers in Archival Science (Ciaran B. Trace) and Human Computer Interaction (Luis Francisco-Revilla) to pioneer the use of large interactive surfaces and tabletop computing  as tools to aid in the teaching and practice of archival processing. The aim of the APT project is to improve archival curation activities – studying the current archival workflow with a eye to increasing transparency, efficiency and effectiveness, as well as enhancing how archival collections are accessed and shared online. The APT project explores the approach of realigning the archival workflow so that materials are digitized first and then processed in digitized form. By combining interactive surface technology with Web-based spatial hypertext, APT empowers archivists to perform increasingly more complex informational tasks in order to add value to archival material before it is released to a designated community. 
-This paper will discuss the findings from the formal evaluation of the second APT prototype.   This will include findings on key usability goals including effectiveness (how well the system did what it is supposed to do); efficiency (the way the system supports users in carrying out their tasks); and satisfaction (subjective responses users have to the system). The presentation will also talk about what the research team learned about the activity of archival arrangement and, in particular, the processing styles and topologies that emerged from the study of APT versus the baseline system (processing physical materials in paper format).  
-</t>
   </si>
   <si>
     <t>Building a Collaborative Archival Research Community</t>
@@ -1137,12 +1042,6 @@
   </si>
   <si>
     <t>University of Pittsburgh; University of Pittsburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This paper concerns a multi-sited, cross-disciplinary, data-intensive social science project underway at the University of Pittsburgh’s World History Center: the World Historical Dataverse Project (WHD). The Project aims to become a “world-historical archive” containing a comprehensive dataset documenting 500 years of human behavior. As large as the WHD is, when approached through archival terminology, this project can take on the appearance of a community-based archives, conceived and organized from inception by a set of stakeholders firmly attached to their subject material but with little to no professional training in the preservation and maintenance of archives. This paper discusses the opportunities and challenges presented by our growing collaboration with this set of users as they confront the issues surrounding the organization, preservation and distribution of their data.
-Drawing on longstanding conversations in archival studies and recent debates in the digital humanities, we offer an overview of the World Historical Dataverse Project, describe our interactions with the project’s directors, situate the WHD within the longer history of data archives, and present findings from our initial consultations. Before our involvement, the WHD stakeholders had framed digitization as a preservation strategy for their data, a problematic assumption from the archival perspective. Once the potentially negative impact of that framework was made clear to them, however, they quickly reached out to us as archival faculty, proactively expressing their interest in collaborating around this issue and improving their approach to digital preservation. 
-Our preliminary findings contribute to knowledge about working across institutional and epistemological divides, and further the ongoing conversation about the role of archival faculty in the contemporary university. Understanding how humanists and social scientists approach the collection of their datasets and conceptualize archives helps us understand the ways in which archival scholars can become involved in their large-scale research projects from the outset. This paper shows that “community archives” can be created within university contexts and at giant scales. Using the WHD as an example, we delineate the distinct role that archival faculty can play in the sustainability of such projects.
-</t>
   </si>
   <si>
     <t>We are living in what Chris Anderson calls “the Petabyte Age,” an age in which we must “lose the tether of data as something that can be visualized in its totality” (Anderson, 2008).  This view, however, is somewhat inaccurate as even data ‘in the cloud’ ultimately reside in a physical location and are therefore susceptible to physical and digital disasters.  Recent events, such as Hurricanes Katrina and Sandy and the 2011 tsunami in Japan, are all disasters that have had significant effects on physical locations where digital information is stored.  These types of events receive a tremendous amount of attention when it comes to disaster planning for digital repositories.  In addition to those large, attention-grabbing catastrophes, digital repositories are probably more subject to what Charles Perrow terms “normal accidents,” which arise out of the particular characteristics of a given system (Perrow, 1984).
@@ -1153,11 +1052,6 @@
 Makes the Scientific Method Obsolete. Wired Magazine 2008, June 28. Retrieved from http://www.wired.com/science/discoveries/ magazine/16-07/pb_theory
 Perrow, C. Normal Accidents: Living with High-Risk Technologies (Updated.). Princeton: Princeton University Press, 1999.
 Slovic, P. Perception of Risk. Science 236(4799, 1987), 280–285. doi:10.1126/science.3563507</t>
-  </si>
-  <si>
-    <t>Digital curation is becoming increasingly recognized as a requirement for the management and long-term preservation of data including digital cultural heritage; research and scientific data in the natural, physical, and social sciences; and business and personal digital information. Yet, no study has investigated whether digital curation is emerging as a distinct discipline or as a set of practices employed by those who work with digital objects. Insight gained from such a study would be useful for stakeholders seeking to understand the current position of digital curation within the academic disciplines as well as in professional practice and research.
-The purpose of this study is to explore how disciplines evolve by conducting an in-depth analysis of digital curation. The overarching research question is: Is digital curation emerging as a distinct discipline? This is investigated by addressing these questions: In what ways have digital curation concepts and practices evolved from other disciplines and areas of research and practice? Are there indicators that suggest digital curation is emerging as a distinct discipline? If digital curation is not an emerging distinct discipline, does it exist only as a set of practices employed by others or as a specialized area within another discipline?
- In this presentation, I will discuss the methodology and pilot study of this research. This study employs a two-phase mixed methods research design. Data collection for this study is a combination of bibliometric analysis and content analysis, followed by interviews. The pilot was conducted for the first phase of the methodology in order to test and improve the data collection instrument.</t>
   </si>
   <si>
     <t>The archival practice advocated by Sir Hilary Jenkinson posits a particular view of the appropriate relationship that should exist between archival objects and their custodians.  In Jenkinsonian thought, the archivist must be acutely aware of his or her ability to disrupt the archival body, and with this awareness, engage in archival practices which reduce the potential to distort the evidential and documentary power of a body of records.  Jenkinson’s limited-interventionist approach was critiqued by his contemporaries, and has continued to be evaluated by commentators of archival theory, particularly scholars of archival appraisal.  However, as a foundational archival reading, and as body of ideas central to the history of archival thought, Sir Hilary Jenkinson’s analysis of the archive deserves its own specific critical study.
@@ -1235,7 +1129,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
@@ -1256,9 +1149,6 @@
     <t>Quantified Self (QS), an entity that is part community of practice, part epistemological framework and part branded franchise, has emerged as the focal point for individuals engaged in self-tracking and personal data gathering using mobile computing and sensing technologies. QS promotes “self-knowledge through numbers” as a transcendental aspiration. Quantification through networked mobile computing technology is understood as a means to personal betterment for those who practice it and a way of generating new knowledge at a societal level on a scale never before possible. 
 The personal data collection practiced by participants in the Quantified Self represents a micro-level corollary to the ubiquitous concept of big data, which espouses that value of massive datasets and the need for tools that can order and analyze them. While Quantified Self does not reject the big data ethos, it also champions individual and non-standard methods of data collection and analysis according to individual and community knowledge and values. 
 This paper uses participant research in Quantified Self as an entry point for discussing the archival concepts of “record” and “aggregation” as they relate to the world of digital big data and examines ways in which we might find in Quantified Self ways to recuperate the small and personal within anonymous big data without simply rejecting or withdrawing from it. This examination has implications for Community Archives as well as the politics of digital recordkeeping more generally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many archivists maintain a presence on the web on such venues as Twitter or Facebook or through blogs.  Some of these archivists also blog, tweet, and post on Facebook for their employers. This qualitative study uses interviews and content analysis to study approximately 20 archivists who maintain dual identities online: one for themselves and one for their employing archives. Drawing on psychological theories of identity, my major research questions are: how do archivists form, change and develop their identities over time, how do they make decisions about venue or where to situate each identity online, and how persona and voice are created.   </t>
   </si>
   <si>
     <t>The poster presents the results of a nine week collaboration with a Santa Monica-Malibu Unified School District classroom teacher; the aim of the collaboration was to gather data on the needs of educators who are using primary sources in their classrooms in order to improve the quality of archival reference services provided to K-12 educators. 
@@ -1286,12 +1176,116 @@
 Scholars, such as Flinn and Ketalaar, call for archivists to pay particular attention to communities that have created their own archives. My research, focusing on a Pacific Island community, sheds some light into how to do this.</t>
   </si>
   <si>
-    <t>Despite much expert advice and guidance over the years (for example, from the International Standards community) which has attempted to focus our attention on how things are done in organisations, we do not appear to have been very successful in developing a nuanced and sophisticated understanding of our workplaces.  This means that we have not fully appreciated the nature and complexity of the influences on the ways in which our users interact with records and recordkeeping systems. Every organization – perhaps even every organization’s unit – has an ‘information culture,’ that is, a particular orientation towards information that is reflected in specific information sharing behaviours, uses of information technology, trust in, and preference for, particular kinds of documentation and communication, and other such information practices. It is only by understanding the dimensions of an organisation's information culture that a recordkeeping culture can be developed.
-The case studies that have been conducted to date have provided insight into the key influences, and have led to the development of an analytic framework. The next step is the development of a global survey, which will focus on major financial institutions. Central banks have a significant impact on the lives of citizens, therefore exploring the information culture of central banks may reveal significant aspects of our current social and economic landscape. Findings will be used to create an online methodology and evaluation tool that will enable organizations to self-assess their information cultures and needs.</t>
-  </si>
-  <si>
     <t>There have been many studies exploring and identifying personal digital archiving strategies and related issues. These studies have found specific behaviors of individuals in storing personal digital content and some primary challenges they encounter when it comes to long-term preservation of their digital assets. Many of these  studies have been conducted with qualitative methodologies (interviews and observations). While qualitative studies have explored the phenomena and activities in personal digital archiving landscape, there have not been much research from quantitative approaches to find the generalized explanation about public’s methods and perceptions of digital archiving.
 This current study employs a quantitative research approach, online survey, with questions to measure the personal digital archiving behaviors and influencing factors to such behaviors. The questions were developed from the findings of the existing qualitative studies to see if specific archiving patterns identified previously are indeed the strategies used generally. The survey included questions regarding how individuals define their personal digital assets, what properties of digital assets they value for archiving, what strategies individuals take to store their digital content, what the major challenges they feel are, and whether some general factors (privacy, memory, technology-efficacy, etc.) influence their archiving behaviors. This study will report the general status of current personal digital archiving and also present if there are clear directions among factors, challenges, and behaviors through the statistical analysis. The online survey was conducted on October 2012. More than 400 individuals participated in this survey. From the correlation analysis among factors, challenges, and behaviors, this study will discuss some general insights for and roles of archivists and information professionals on how to assist people in preserving personal archives in the age of digital technology.</t>
+  </si>
+  <si>
+    <t>Simmons College; Simmons College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This  paper, presented in partnership with doctoral student Patti Condon who is an RA on this project, reports on the  research data gathered for a book currently in preparation and  provisionally titled "Archives in Libraries; How Librarians and Archivists Bridge the Gaps and Find Common Ground in a time of Convergence." This book is being published by SAA with a manuscript deadline of August 2013. It explores the ways in which librarians and other information professionals responsible for archival components in their workplace can best understand, manage, supervise and work with archives and archivists, how archivists and archives/special collections function within the context of a library, and how librarians and archivists can cooperate most effectively.   By explaining archives to librarians and assisting archivists to operate within a library context, this book addresses problems of alignment, cooperation and convergence between archives and libraries residing in the same institution. 
+Research data includes :
+- Interviews.  Over 25 hour-long interviews with archivists who work in public or academic libraries and their library directors. Coded in NVIVO. 
+- Organizational information
+- Statistics 
+- Scenarios
+- Secondary sources
+This presentation will discuss the relationships between the data and the  content of the book, how the data was collected and how it will be coded and used.  We will also discuss some of the  results as well as the research challenges.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The data deluge and recent advances in data collection and analysis techniques have lead to an increasing interest in the use of datasets by researchers who did not create them (referred to as data reuse).  Recent studies explore the difficulties of making data accessible for reuse as well as the problems of understanding datasets created by others (Akmon et al. 2011, Zimmerman 2008).  One important data provider is largely overlooked from these discussions: the museum.  As collectors and curators of objects recording cultural and natural history, museums have long made data accessible to researchers.  Opportunities for including museum data in larger datasets are only beginning to emerge, as consortia develop tools for cross-collection access to museum data.  Little is known, however, about the needs of researchers for the successful reuse of museum data and how well these data represent the underlying collections.  This study examines the practices of botanists and archaeologists in their use of collections from two museums.  Based on 45 semi-structured interviews with botanists, archaeologists, and museum staff, this work uncovers the information needs of research users, how researchers perceive the relationship between museum objects and their descriptions in the research process, and the impact of museum practices for digital representation on reuse.
+My findings highlight the importance of contextual information concerning research design behind data (object) collection as a key component of successful reuse.  For example, the context in which an object was found is of paramount importance in both judging the quality of data and in making use of it for research, whether that is information about the stratigraphic layer in which an archaeological object was discovered or a description of the habitat of a botanical specimen.  Both groups of researchers have experienced changing standards and technologies for recording contextual information, making some older data less useful for analysis.  Archaeologists need to understand the provenience of an object, linking it to a particular location.  Objects lacking that level of detail can still be useful, but must be approached with different research questions.  Likewise, botanists studying the geographic range in which a particular species is found require a degree of certainty about location identification to judge whether a specimen may be included or removed from their dataset. The findings of this study have important implications for the representation of museum objects for research audiences.  They are also relevant to researchers studying data reuse, museum staff creating representation systems, and data curators working with data from multiple, heterogeneous sources.
+References:
+Akmon, D., A. Zimmerman, et al. (2011). "The Application of archival concepts to a data-intensive environment: Working with scientists to understand data management and preservation needs." Archival Science 11(3-4): 329-348.
+Zimmerman, A. S. (2008). "New Knowledge from Old Data: The Role of Standards in the Sharing and Reuse of Ecological Data." Science, Technology, &amp; Human Values 33: 631-652.</t>
+  </si>
+  <si>
+    <t>Despite much expert advice and guidance over the years (for example, from the International Standards community) which has attempted to focus our attention on how things are done in organisations, we do not appear to have been very successful in developing a nuanced and sophisticated understanding of our workplaces.  This means that we have not fully appreciated the nature and complexity of the influences on the ways in which our users interact with records and recordkeeping systems. Every organization--perhaps even every organization’s unit--has an ‘information culture,’ that is, a particular orientation towards information that is reflected in specific information sharing behaviours, uses of information technology, trust in, and preference for, particular kinds of documentation and communication, and other such information practices. It is only by understanding the dimensions of an organisation's information culture that a recordkeeping culture can be developed.
+The case studies that have been conducted to date have provided insight into the key influences, and have led to the development of an analytic framework. The next step is the development of a global survey, which will focus on major financial institutions. Central banks have a significant impact on the lives of citizens, therefore exploring the information culture of central banks may reveal significant aspects of our current social and economic landscape. Findings will be used to create an online methodology and evaluation tool that will enable organizations to self-assess their information cultures and needs.</t>
+  </si>
+  <si>
+    <t>Drawing from my dissertation work, this research presentation looks at how the concept of wicked problems can serve as a framework for examining institutional recordkeeping behavior. In particular, wicked problems are a useful lens for understanding how institutions attempting to address broad, complex societal problems document the environments and communities that they engage. This conceptual discussion is driven by a case study of reports produced by US advisors during the Vietnam War. 
+ In their 1973 Policy Science article “Dilemmas in a General Theory of Planning,” Horst Rittel and Melvin Webber define wicked problems as societal problems that are complex, vitally important, ill defined, and “rely upon elusive political judgment for resolution.” Poverty, crime, and climate change are frequently considered types of wicked problems. Rittel and Webber point out that understanding and describing wicked problems is closely tied to conceptualizing solutions to the problems. For example, describing the problem of poor school performance and high dropout rates as being directly related to poverty means one has considered that ameliorating the negative consequences of poverty could be a solution for raising school performance and lowering the dropout rate. This shapes how organizations document complex environments as they are prompted to measure indicators that are closely linked with what they perceive as meaningful sources of problems and solutions. 
+Understanding counterinsurgencies as wicked problems helps to illustrate how civil and military leaders’ conceptualization of an insurgency—and thus their prescription for how to defeat the insurgency—shapes what they measure and how they measure it. This presentation looks at the recordkeeping behavior factors that shaped the creation of US advisor monthly province reports during the Vietnam War using the frame of wicked problems. It looks at the documentation and reporting rules for these reports and analyzes the debates and reasoning behind these rules. This is driven by an examination of how US military and civilian leaders’ understanding of the war influenced the recordkeeping rules and ultimately, the production of the monthly province reports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing numbers of family history researchers (FHRs) are moving from personal archiving of family history to working with other FHRs to build web-accessible archives pertaining to deceased individuals for public consumption.  Contributors to these archives are synthesizing personal and citizen archiving into new forms of online resources and new forms of collaborative work with primary materials. While FHR’s collaborative archiving results in rich information and primary materials worthy of long-term preservation, much of this activity is occurring outside of the walls of memory institutions on both commercial- and community-based websites. Understanding and engaging with these online communities is important for memory institutions if they hope to have a role in the long-term preservation of archives built by FHRs. Engagement with collaborative archiving communities also may lead to new ways for memory institutions to connect with archives users in a participatory manner that extends beyond interacting with users as information consumers to interacting with users as information consumers and information producers. 
+To develop an understanding of collaborative archiving communities, this preliminary study explores the relationship between personal and citizen archiving, how collaborative archiving works in the virtual world, and the roles memory institutions’ may play in collaborative archiving communities. To that end, the study examined collaborative archiving on Findagrave.com and Ancestry.com.  These popular websites have 1,000s of contributors and represent two different types of collaborative archiving: one mediated by a commercial entity and the other mediated by the community of users and contributors. Findagrave.com and Ancestry.com were chosen because of their prominence, the number of contributors involved, the historical value of the materials being archived, and the potential differences that may exist between collaborative archiving on a commercial website vs. a community-run website.  For this study, website contributors were interviewed, and content analysis was performed on message board posts of website contributors.  Important themes that were uncovered include copyright and use challenges, content accuracy issues, the need for mediation and consensus building in the content production process, and the ways memory institutions can support collaboration and information access in the community archiving process.  </t>
+  </si>
+  <si>
+    <t>In recent years, big data has become a prevalent issue for Information studies research and practice. In an era of big data, can we contemplate collections that rely more on the context of creation than volume and variety of source? This workshop considers what archives can learn from Big Data, but how they might also contribute to an alternate small data approach. Despite the outpouring of critique and theoretical assertions related to big data, little attention has been paid to the collections, researchers and collecting institutions that get left out the rhetoric of big data. Our investigation will develop criteria for studying small data and explore some of the issues inherent in developing small data research. The workshop will also provide a forum for participants and organizers to develop future directions towards a comprehensive small data research agenda. We thus hope to develop and discuss factors for consideration in context, preservation and access of both big and small data in archives.
+Recommended prerequisite readings for attendees:
+C. Lynch, “Big data: How do your data grow?,”Nature, vol. 455, pp. 28–29, Sep. 2008. 
+danah boyd and K. Crawford, “CRITICAL QUESTIONS FOR BIG DATA,” Information, Communication &amp; Society, vol. 15, no. 5, pp. 662–679, 2012.
+L. Manovich, “Trending: The Promises and the Challenges of Big Social Data,” in Debates in the Digital Humanities, M. K. Gold, Ed. Minneapolis, MN: U of Minnesota Press, 2012.
+J. Burrell, “The Ethnographer’s Complete Guide to Big Data: Conclusions (part 3 of 3),” Ethnography Matters. [Online]. Available: http://ethnographymatters.net/2012/06/28/the-ethnographers-complete-guide-to-big-data-part-iii-conclusions/. [Accessed: 10-Sep- 2012].</t>
+  </si>
+  <si>
+    <t>Archivists and archival educators have become increasingly interested in expanded notions of how how archives are conceptualized.  This movement is best captured by the Pluralizing the Archival Curriculum Group, which asks “How do we move from an archival universe dominated by one cultural paradigm to an archival multiverse[?]” (p. 73). As an archives educator in New York City, I often find my students interested in pluralizing archives by applying contemporary social thought to their thinking about archives.  They use concepts that touch on issues of power, representation, and social justice, often leaving state or institutional power called into question.  Blouin and Rosenberg (2011) not that this tendency is not universal, finding that practicing archivists have grown away from historians and are more interested in “bureaucratic behavior and the imperatives of technology” (p. 93).  Despite their reservations, those pluralizing students most often employ concepts originating in the humanities and cultural spheres, which reflect both the educational background of the students that employ them as well as the educational background that attracts students to the field of archives.
+Despite this interest in incorporating multiple perspectives, rarely do concepts from the physical sciences get incorporated into discussion of archives.  This is not an occurrence that is unique to archival studies but spans the human sciences.  For example, in the 1990s Jonathan Boyarin asked, “Why is it that our physics are now those of Einsteinian relativity and quantum mechanics, whereas our politics and our rhetorics still assume a world as described by Newton and Descartes?” (p. 4)  Despite how rarely physics factors into foundations of archives conversations, many concepts from cosmology have extensive bearing on how archives and history are conceptualized.  For example, physicists contend that the notion of the past, present, and future is largely an illusion, albeit an illusion that is particularly useful for humans (or at least to those from Western civilizations).  Events that are thought of as occurring in the past are merely in a different point within spacetime, and those points are not theoretically inaccessible.  Most archivists will consent that interpretation of past events and its respective documentation will occur over time, yet often will not contend the immutability or “pastness” of years gone by.
+Like much of the human sciences, archivists most often employ a Cartesian conceptualization of time and space with a one-sided arrow pointing toward the future, which although useful is a particularly Western conception that physicists no longer believe is accurate. This paper will return to Boyarin’s question by discussing those ideas from physical cosmology that have bearing on how archives are conceptualized.  The goal is continue the pioneering work of pluralizing archives by giving some consideration to important concepts that may not necessarily be useful to humans in a everyday sense but may lead to a richer theoretical understanding of the place of archives within the human universe.
+References 
+Blouin Jr., F. X. &amp; Rosenberg, W. G. Processing the
+Past: Contesting Authority in History and the Archives. New York, NY: Oxford University Press, 2011.
+Boyarin, J. “Space, Time, and the Politics of Memory.” In J. Boyarin &amp; C. Tilly (Eds.), Remapping Memory: The Politics of TimeSpace (pp. 1-37). Minneapolis: University of Minnesota Press, 1994.
+Pluralizing the Archival Curriculum Group (PACG). “Educating for the Archival Multiverse.” American Archivist, 74 (Summer/Spring 2011), 69-101.</t>
+  </si>
+  <si>
+    <t>The large-scale digitization of books is generating extraordinary collections of visual and textual surrogates, whose preservation is premised partly upon their long term cultural and research value. The challenges of long term preservation turn partially on understanding the archival nature of organically generated and quite fluid digital surrogates. Understanding the relationship between digital surrogacy and the traces of artifacts introduced by digitization processes is thus a substantial challenge for archival science. The emphasis of the research is on the visual representation of books as digitally bound bitmap sequences, derived from sometimes deeply flawed source volumes and produced through a complex set of manual scanning processes and automated post-scan image processing procedures. The transformation of published books to digital code and algorithm is “always subject to the functional constraints imposed by the material variables of computation.” (Eaves 2003, p. 164)  The relationship between source and digital surrogate conforms to the “law of contact” proposed by Taussig (1993, p. 52): “things which have once been on contact with each other continue to act on each other at a distance after the physical contact has been severed.”  Significantly, digital surrogates produced through high-volume digitization carry with them traces of the terms of their creation. Such traces may inevitably affect the trust that is essential the acceptance of digital surrogates as sources of scholarship. “If we cannot trust our means of reproduction of images of texts, can we trust the readings from them? How do scholars acknowledge the quality of digitized images of texts?” (Terras 2011, p. 1) The paper advances a theory of the archival nature of surrogacy founded on longstanding notions of archival quality and value, but informed by the findings of research into the quality of large-scale digitization of books and serials. The design of the research (Conway 2011) and summary findings (Conway 2013) are reported separately. The research has been supported by the US Institute of Museum and Library Services and The Andrew W. Mellon Foundation. 
+References
+Conway, P. (2011). “Archival Quality and Long-term Preservation: A Research Framework for Validating the Usefulness of Digital Surrogates.” Archival Science 11 (3).
+Conway, P. (2013). “Preserving Imperfection: Assessing the Incidence of Digital Imaging Error in HathiTrust.” Preservation, Digital Technology &amp; Culture 42 (1): forthcoming.
+Eaves, M. (2003). “Graphicality: multimedia Fables for ‘Textual’ Critics.” In Reimagining Textuality: Textual Studies in the Late Age of Print, ed. Elizabeth Bergmann-Loizeaux and Neil Fraistat. Madison: University of Wisconsin Press, pp. 99-122.
+Taussig, M. (1993). Mimesis and Alterity: A Particular History of the Senses. New York: Routledge.
+Terras, M. (2011). Artefacts and Errors: Acknowledging Issues of Representation in the Digital Imaging of Ancient Texts. In Fischer, F., Fritze, C. and Vogeler, G, (eds.) Kodikologie und Paläographie im digitalen Zeitalter 2 / Codicology and Palaeography in the Digital Age 2. (43-61). Books on Demand: Norderstedt, Germany. http:// discovery.ucl.ac.uk/171362/</t>
+  </si>
+  <si>
+    <t>Micro blog (Weibo in Chinese), similar to Twitter in America, has become an important tool to publish, spread and share information; to communicate with others; and even to seek social justice in China. According to the Statistical Report on Internet Development in China issued by CNNIC (China Internet Network Information Center), an agency responsible for administering internet services, including internet survey and statistics, the number of micro bloggers in China reached 274 million by the end of June, 2012. As of Jan 30, 2013, 36 archives in China have opened their own micro blogs on the biggest micro blog platform, Sina Weibo, but there are some problems and limitations existing in archives micro blogs. This paper will explore these problems and limitations, and the underlying reasons, from the perspective of archives culture.
+Chinese archives have a distinctive culture. This paper will address the distinctive archives culture has a great influence on the employment of micro blogs in Chinese archives, and  it underlies the current problems and limitations in Chinese archives micro blogs. This paper will also suggest that it is possible to promote archives culture through archival research and archival education. These activities may then promote the employment of archives micro blogs or other similar new technologies. A terminology of archives culture will be proposed and discussed. Characteristics of the distinctive archives culture in China will be analyzed using Hofstede’s cultural dimensions theory as a reference. The influence of Chinese archives culture on the employment of archives micro blogs will be evaluated by investigating the 36 governmental public archives micro blogs in China. This paper will also discuss the possibility to promote the archives culture and then promote the employment of micro blog or other new technologies in Chinese archives through archival research and archival education by comparing the differences on the employment of micro blog between the archives located in the southeast of China and the archives located in the west of China.</t>
+  </si>
+  <si>
+    <t>This paper presents a work-in-progress investigating the use of social media in scholarly communication and my efforts to preserve such informal scholarly communication. The digital humanities have emerged as a focal point for debates about the impact of information technology in the humanities[1]. While the digital humanities has its roots in the computational processing of text,[2] the landscape today is far richer and more complicated than early practitioners of humanities computing could have ever imagined (except perhaps Father Busa whose grand visions have yet to be fully realized[3]). Today, the digital humanities encompasses transformative methods of inquiry, radically new kinds of research objects, and potentially destabilizing shifts in scholarly publishing.
+Social media, especially blogs, have been eagerly adopted by the digital humanities community[4]. Blogs are pregnant with promise and peril as platforms for serious (and silly) scholarly communication; they are quick for publishing, support multimedia, and enable rapid interaction, yet, the low barrier of entry and lack of peer review puts blog's credibility and quality in doubt. Such a totalizing perspective ignores the diverse uses and meanings of blogs for scholars in a variety of disciplines[5]. The value of scholar's blogs and the vibrant communities of discourse around them should not be understated or ignored.
+The seriousness of blogs as a mode of scholarly communication is evident in the creation of initiatives such as Digital Humanities Now[6] and the Journal of Digital Humanities[7]. These projects treat blogs as legitimate forms of proto-scholarship and provide a kind of peer-review for the community by selecting high quality discourse within the Compendium of Digital Humanities, a curated selection of digital humanities blogs. As part of my dissertation research analyzing digital humanities blog, I have begun archiving and preserving this important scholarly record, both for my own analysis, but for the broader community as well. 
+This presentation will focus specifically on the sharing my experiences in web archiving and digital preservation of digital humanities blogs. I will discuss my experiences web archiving with the open source archive crawler Heretrix [8], the theoretical and practical challenges I faced (and still face) working with digitally native scholarly communication, and my efforts using the digital archive as data for quantitative and qualitative research.
+Notes
+1. Gold, Matthew K., ed. Debates in the Digital Humanities. Univ Of Minnesota Press, 2012.
+2. Hockey, S. “The History of Humanities Computing.” A Companion to Digital Humanities. 2004.
+3. Busa, R. “Foreword: Perspectives on the Digital Humanities.” In A Companion to Digital Humanities. 2004.
+4. Cohen, Dan. “Professors, Start Your Blogs.” 2006. http://www.dancohen.org/2006/08/21/professors-start -your-blogs/
+5. Hank, C. F. “Scholars and their Blogs: Characteristics, Preferences, and Perceptions Impacting Digital Preservation”. University of North Carolina, 2011. http://ils.unc.edu/~wildem/ ASIST2011/Hank-diss.pdf.
+6. http://digitalhumanitiesnow.org
+7. http://journalofdigitalhumanities.org/
+8. https://webarchive.jira.com/wiki/display/Heritrix/ Heritrix</t>
+  </si>
+  <si>
+    <t>The Master of Archival Studies program at Clayton State University uses synchronous video conferences for live lectures. Over the past year, the program expanded the use of video conferencing to small group discussions in response to concerns that asynchronous, text-based discussion boards were not effectively engaging the students.  Students also  participate in online writers' groups, adapted from a model developed by Dr. Tara Gray at New Mexico State University with the assistance of Dr. Sipai Klein of Clayton State University.  In both discussion and writers groups, the real time interaction - expressing their own understanding and hearing other students' perspectives - are similar to traditional, face-to-face seminars.
+The effectiveness of online groups is influenced by technical and social components.  Choice of technology allows students to build personal relationships through a sense of immediacy and spontaneity similar to face-to-face seminars.  At the same time, the students need to be socialized in the use of the technology, making it as transparent as possible, so that they can concentrate on the ideas.
+The presentation will discuss the methods, technology, and socialization used in the program.  It will also offer preliminary observations that improved communications results in a greater understanding of the course content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The “Augmented Processing Table” project brings together researchers in Archival Science (Ciaran B. Trace) and Human Computer Interaction (Luis Francisco-Revilla) to pioneer the use of large interactive surfaces and tabletop computing  as tools to aid in the teaching and practice of archival processing. The aim of the APT project is to improve archival curation activities – studying the current archival workflow with a eye to increasing transparency, efficiency and effectiveness, as well as enhancing how archival collections are accessed and shared online. The APT project explores the approach of realigning the archival workflow so that materials are digitized first and then processed in digitized form. By combining interactive surface technology with Web-based spatial hypertext, APT empowers archivists to perform increasingly more complex informational tasks in order to add value to archival material before it is released to a designated community. 
+This paper will discuss the findings from the formal evaluation of the second APT prototype.   This will include findings on key usability goals including effectiveness (how well the system did what it is supposed to do); efficiency (the way the system supports users in carrying out their tasks); and satisfaction (subjective responses users have to the system). The presentation will also talk about what the research team learned about the activity of archival arrangement and, in particular, the processing styles and topologies that emerged from the study of APT versus the baseline system (processing physical materials in paper format).  </t>
+  </si>
+  <si>
+    <t>This paper concerns a multi-sited, cross-disciplinary, data-intensive social science project underway at the University of Pittsburgh’s World History Center: the World Historical Dataverse Project (WHD). The Project aims to become a “world-historical archive” containing a comprehensive dataset documenting 500 years of human behavior. As large as the WHD is, when approached through archival terminology, this project can take on the appearance of a community-based archives, conceived and organized from inception by a set of stakeholders firmly attached to their subject material but with little to no professional training in the preservation and maintenance of archives. This paper discusses the opportunities and challenges presented by our growing collaboration with this set of users as they confront the issues surrounding the organization, preservation and distribution of their data.
+Drawing on longstanding conversations in archival studies and recent debates in the digital humanities, we offer an overview of the World Historical Dataverse Project, describe our interactions with the project’s directors, situate the WHD within the longer history of data archives, and present findings from our initial consultations. Before our involvement, the WHD stakeholders had framed digitization as a preservation strategy for their data, a problematic assumption from the archival perspective. Once the potentially negative impact of that framework was made clear to them, however, they quickly reached out to us as archival faculty, proactively expressing their interest in collaborating around this issue and improving their approach to digital preservation. 
+Our preliminary findings contribute to knowledge about working across institutional and epistemological divides, and further the ongoing conversation about the role of archival faculty in the contemporary university. Understanding how humanists and social scientists approach the collection of their datasets and conceptualize archives helps us understand the ways in which archival scholars can become involved in their large-scale research projects from the outset. This paper shows that “community archives” can be created within university contexts and at giant scales. Using the WHD as an example, we delineate the distinct role that archival faculty can play in the sustainability of such projects.</t>
+  </si>
+  <si>
+    <t>Digital curation is becoming increasingly recognized as a requirement for the management and long-term preservation of data including digital cultural heritage; research and scientific data in the natural, physical, and social sciences; and business and personal digital information. Yet, no study has investigated whether digital curation is emerging as a distinct discipline or as a set of practices employed by those who work with digital objects. Insight gained from such a study would be useful for stakeholders seeking to understand the current position of digital curation within the academic disciplines as well as in professional practice and research.
+The purpose of this study is to explore how disciplines evolve by conducting an in-depth analysis of digital curation. The overarching research question is: Is digital curation emerging as a distinct discipline? This is investigated by addressing these questions: In what ways have digital curation concepts and practices evolved from other disciplines and areas of research and practice? Are there indicators that suggest digital curation is emerging as a distinct discipline? If digital curation is not an emerging distinct discipline, does it exist only as a set of practices employed by others or as a specialized area within another discipline?
+In this presentation, I will discuss the methodology and pilot study of this research. This study employs a two-phase mixed methods research design. Data collection for this study is a combination of bibliometric analysis and content analysis, followed by interviews. The pilot was conducted for the first phase of the methodology in order to test and improve the data collection instrument.</t>
+  </si>
+  <si>
+    <t>‘Collaborative innovation’ has become hot topics both in recent Chinese literature and current practice. More and more research has been done in multidisciplinary fields to suggest positive social changes to improve the efficiency, effectiveness and economy of collaborative innovation and the performance. While this issue is gaining increasing attention in the “mainstream” literature, it is still underexplored in the field of records management. This paper aims to fill in this gap in literature and try to ask and answer the following two questions: (1) what does the current literature reveal about the interrelations between collaborative innovation and electronic records management? (2) How can the electronic records management competence building and assessment perspective help to define future topics for research in support of collaborative innovation community? Findings shown grand challenges to and demands from collaborative innovation communities are the commitment and trust, conformity and collective governance, connectivity and sustainable development of collaborative innovation. The author argues that electronic records management competence building and assessment can be used as a lens to promote multi-dimensional commitment based on trust of collective memory, to enhance multi-directional conformity based on collaborative governance of evidential information and to improve multi-layer connectivity based on sustainable development of value added in knowledge asset. By literature review, research synthesis and meta-analysis, the paper contributes to the literature in three ways. First, it provides insight into the ways as in which the collaborative innovation literature currently lacks attention towards aspects what are crucial for successfully performance. These elements are provided by incorporating the electronic records management competence building and assessment. Secondly, the paper proposes a set of assumptions and hypothesis under which electronic records management competence building and assessment in support of collaborative innovation community should operate. Thirdly, a research agenda in support of collaborative innovation community that incorporates the electronic records management competence building and assessment is proposed. This paper is limited to rationalize the significance of the research topic and the feasibility for its future study, in depth studies of assumptions and hypothesis, conceptual framework for competence building and a model for its assessment will be done in the future. This paper consists of five parts: (1) introduction, (2) collaborative innovation as an emerging research topic in Chinese and English literature, (3) collaborative innovation community as emerging concept and the missing links to electronic records management in current literature, (4) linking electronic records management competence building and assessment to collaborative innovation community as a future research agenda, (5) conclusion.</t>
+  </si>
+  <si>
+    <t>Many archivists maintain a presence on the web on such venues as Twitter or Facebook or through blogs.  Some of these archivists also blog, tweet, and post on Facebook for their employers. This qualitative study uses interviews and content analysis to study approximately 20 archivists who maintain dual identities online: one for themselves and one for their employing archives. Drawing on psychological theories of identity, my major research questions are: how do archivists form, change and develop their identities over time, how do they make decisions about venue or where to situate each identity online, and how persona and voice are created.</t>
   </si>
 </sst>
 </file>
@@ -1304,14 +1298,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1455,9 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1509,6 +1499,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1879,79 +1872,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="26.69921875" customWidth="1"/>
-    <col min="6" max="6" width="48.19921875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="43.296875" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2013001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2013002</v>
       </c>
@@ -1959,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>181</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2013003</v>
       </c>
@@ -1994,80 +1987,80 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2013004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2013005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2013006</v>
       </c>
@@ -2081,22 +2074,22 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2013007</v>
       </c>
@@ -2110,22 +2103,22 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2013008</v>
       </c>
@@ -2139,22 +2132,22 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>335</v>
+        <v>187</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2013009</v>
       </c>
@@ -2171,19 +2164,19 @@
         <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2013010</v>
       </c>
@@ -2191,28 +2184,28 @@
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>336</v>
+        <v>188</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2013011</v>
       </c>
@@ -2220,28 +2213,28 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2013012</v>
       </c>
@@ -2249,28 +2242,28 @@
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2013013</v>
       </c>
@@ -2284,30 +2277,30 @@
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2013014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -2316,19 +2309,19 @@
         <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2013015</v>
       </c>
@@ -2336,28 +2329,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2013016</v>
       </c>
@@ -2371,22 +2364,22 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2013017</v>
       </c>
@@ -2394,28 +2387,28 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2013018</v>
       </c>
@@ -2429,22 +2422,22 @@
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2013019</v>
       </c>
@@ -2458,22 +2451,22 @@
         <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2013020</v>
       </c>
@@ -2487,80 +2480,80 @@
         <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2013021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2013022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2013023</v>
       </c>
@@ -2574,22 +2567,22 @@
         <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2013024</v>
       </c>
@@ -2603,22 +2596,22 @@
         <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2013025</v>
       </c>
@@ -2632,22 +2625,22 @@
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2013026</v>
       </c>
@@ -2655,28 +2648,28 @@
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2013027</v>
       </c>
@@ -2690,22 +2683,22 @@
         <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2013028</v>
       </c>
@@ -2713,28 +2706,28 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2013029</v>
       </c>
@@ -2748,22 +2741,22 @@
         <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2013030</v>
       </c>
@@ -2777,22 +2770,22 @@
         <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2013031</v>
       </c>
@@ -2806,22 +2799,22 @@
         <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2013032</v>
       </c>
@@ -2835,22 +2828,22 @@
         <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2013033</v>
       </c>
@@ -2858,28 +2851,28 @@
         <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2013034</v>
       </c>
@@ -2893,22 +2886,22 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="406.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="406.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2013035</v>
       </c>
@@ -2916,144 +2909,144 @@
         <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2013036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2013037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2013038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2013039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2013040</v>
       </c>
@@ -3070,19 +3063,19 @@
         <v>69</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2013041</v>
       </c>
@@ -3090,28 +3083,28 @@
         <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>297</v>
+        <v>169</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2013042</v>
       </c>
@@ -3119,28 +3112,28 @@
         <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2013043</v>
       </c>
@@ -3151,344 +3144,344 @@
         <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2013044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2013045</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2013046</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2013047</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2013048</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2013049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2013050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2013051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2013052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2013053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>145</v>
+        <v>219</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2013054</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2013055</v>
       </c>
@@ -3499,315 +3492,315 @@
         <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2013056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2013057</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2013058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2013059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2013060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2013061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>314</v>
+        <v>98</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2013062</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2013063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2013064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2013065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>151</v>
+        <v>230</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2013066</v>
       </c>
@@ -3815,556 +3808,560 @@
         <v>72</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2013067</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>2013068</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>2013069</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>2013070</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>2013071</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
-        <v>2013068</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="F72" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>2013072</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>2013073</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>2013074</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>2013075</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>2013076</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>2013077</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>2013078</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>2013079</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>2013080</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>2013081</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
-        <v>2013069</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="D82" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="234" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
-        <v>2013070</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="F82" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
-        <v>2013071</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
-        <v>2013072</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="H82" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>2013082</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>2013073</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="E83" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>2013083</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
-        <v>2013074</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="E84" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>2013084</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
-        <v>2013075</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="12">
-        <v>2013076</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
-        <v>2013077</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="12">
-        <v>2013078</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
-        <v>2013079</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="12">
-        <v>2013080</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="12">
-        <v>2013081</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="12">
-        <v>2013082</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="12">
-        <v>2013083</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="12">
-        <v>2013084</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="E85" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H86" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4376,151 +4373,151 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="36.296875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>2013074</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2013075</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2013076</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2013077</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2013078</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2013079</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2013080</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2013081</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2013082</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2013083</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2013084</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2013085</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
